--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/10/seed5/result_data_KNN.xlsx
@@ -485,10 +485,10 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.096</v>
+        <v>-11.047</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.514</v>
+        <v>-7.264999999999999</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.694</v>
+        <v>-21.669</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.49</v>
+        <v>-12.139</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.556</v>
+        <v>-12.805</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.359999999999999</v>
+        <v>-7.257</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.296</v>
+        <v>-13.186</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.75</v>
+        <v>-21.757</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.444</v>
+        <v>-12.762</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.048</v>
+        <v>-20.178</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-14.382</v>
+        <v>-13.341</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.558</v>
+        <v>-19.741</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.768000000000001</v>
+        <v>-7.746</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.614</v>
+        <v>-12.883</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.756</v>
+        <v>-21.924</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.992</v>
+        <v>-22.155</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.048</v>
+        <v>-22.278</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.829</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.773999999999999</v>
+        <v>-8.040000000000001</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.606</v>
+        <v>-21.481</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.606</v>
+        <v>-21.637</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.052</v>
+        <v>-21.445</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.064</v>
+        <v>-8.405999999999999</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.576000000000001</v>
+        <v>-6.962000000000001</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.47</v>
+        <v>-21.584</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.55</v>
+        <v>-6.931999999999999</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.64</v>
+        <v>-20.428</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.794</v>
+        <v>-12.638</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.918</v>
+        <v>-13.45</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.74</v>
+        <v>-7.76</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
